--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Categoria" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Url" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Contrasena" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Correo" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Datos" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Categoria</t>
   </si>
@@ -64,16 +63,73 @@
     <t xml:space="preserve">https://www.alkomprar.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telefono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Contrasena</t>
   </si>
   <si>
+    <t xml:space="preserve">luis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hurtado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lchc1910@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">kCDwYAS*SMC4YW3</t>
   </si>
   <si>
-    <t xml:space="preserve">Correo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lchc1910@gmail.com</t>
+    <t xml:space="preserve">Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pacex10688@pgobo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lozano</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> goyih18973@mevori.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutierres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perez</t>
   </si>
 </sst>
 </file>
@@ -272,7 +328,7 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -394,69 +450,133 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
+        <v>18</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3142006780</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3122016780</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3112016780</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3122066780</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3122066781</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3122066782</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3122066783</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="lchc1910@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" display="lchc1910@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="pacex10688@pgobo.com"/>
+    <hyperlink ref="D4" r:id="rId3" display=" goyih18973@mevori.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
